--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lyf0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260D9946-11F5-46B6-9962-7D4D78D6A44E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$786</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="657">
   <si>
     <t>【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-09-13 15:18:04</t>
   </si>
@@ -2079,11 +2078,18 @@
   <si>
     <t>爽到</t>
   </si>
+  <si>
+    <t>傻嗨们看电视了</t>
+  </si>
+  <si>
+    <t>没上班</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -2316,7 +2322,7 @@
         <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\Gokou\AppData\Local\Temp\F_4GF8[V18T9J0_@[1KF0$C.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063C807D-D0E8-4C95-85CE-9E0969E5A0D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{063C807D-D0E8-4C95-85CE-9E0969E5A0D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,11 +2664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB084-BFB8-497C-AF2A-CA33F9FEC311}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2805,7 +2811,7 @@
       </c>
       <c r="H6">
         <f>SUMIF(D:D,G6,E:E)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4549,6 +4555,15 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>43570</v>
+      </c>
+      <c r="C104" t="s">
+        <v>655</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>656</v>
+      </c>
       <c r="E104">
         <v>1</v>
       </c>
@@ -5782,7 +5797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01153F7-53D1-4151-B98F-EAE2FCA3C8B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B786"/>
   <sheetViews>
@@ -12877,7 +12892,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A786" xr:uid="{F6EF1562-6384-435A-9334-B4B0D3A47F33}">
+  <autoFilter ref="A1:A786">
     <filterColumn colId="0">
       <filters>
         <filter val="【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-05-28 17:43:38"/>
@@ -13018,9 +13033,9 @@
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A101" r:id="rId1" display="qq://txfile/" xr:uid="{B104833A-9398-40FA-B42B-A3BA984D9E18}"/>
-    <hyperlink ref="A346" r:id="rId2" display="qq://txfile/" xr:uid="{D8052168-9C21-46BC-B94F-1B3E27D330DD}"/>
-    <hyperlink ref="A467" r:id="rId3" display="qq://txfile/" xr:uid="{B81FCC2B-5503-4AA8-AC56-78E203C8C5DC}"/>
+    <hyperlink ref="A101" r:id="rId1" display="qq://txfile/"/>
+    <hyperlink ref="A346" r:id="rId2" display="qq://txfile/"/>
+    <hyperlink ref="A467" r:id="rId3" display="qq://txfile/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -13028,7 +13043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C223F5E7-A8D7-44C8-9371-C223BC11C1B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260D9946-11F5-46B6-9962-7D4D78D6A44E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D715F8-A53F-42E1-9165-64BF222F1C6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="656">
   <si>
     <t>【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-09-13 15:18:04</t>
   </si>
@@ -2078,6 +2078,10 @@
   </si>
   <si>
     <t>爽到</t>
+  </si>
+  <si>
+    <t>伤病员要去健身辽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2661,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB084-BFB8-497C-AF2A-CA33F9FEC311}">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2712,7 +2716,7 @@
       </c>
       <c r="H2" s="15">
         <f>AVERAGEA(B2:B226)</f>
-        <v>0.60875891203703714</v>
+        <v>0.60717283186652005</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2755,7 +2759,7 @@
       </c>
       <c r="H4">
         <f>SUMIF(D:D,G4,E:E)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2780,7 +2784,7 @@
       </c>
       <c r="H5">
         <f>SUMIF(D:D,G5,E:E)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3288,7 +3292,7 @@
       </c>
       <c r="D33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3881,7 +3885,7 @@
         <v>422</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f t="shared" ref="D66:D101" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
+        <f t="shared" ref="D66:D129" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
         <v>加班辽</v>
       </c>
       <c r="E66">
@@ -4458,7 +4462,7 @@
       </c>
       <c r="D98" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -4549,6 +4553,19 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>43570</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.44856481481481486</v>
+      </c>
+      <c r="C104" t="s">
+        <v>655</v>
+      </c>
+      <c r="D104" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>正常下班</v>
+      </c>
       <c r="E104">
         <v>1</v>
       </c>
@@ -5761,18 +5778,18 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D1:D102 D104:D1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Lyf0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D715F8-A53F-42E1-9165-64BF222F1C6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07168C4C-CDF7-4820-BA69-A06510624A8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
+    <workbookView xWindow="2160" yWindow="3345" windowWidth="15825" windowHeight="8955" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2666,7 +2666,7 @@
   <dimension ref="A1:H345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3885,7 +3885,7 @@
         <v>422</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f t="shared" ref="D66:D129" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
+        <f t="shared" ref="D66:D104" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
         <v>加班辽</v>
       </c>
       <c r="E66">
@@ -5778,18 +5778,18 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D1:D102 D104:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Lyf0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07168C4C-CDF7-4820-BA69-A06510624A8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8F3D42-BE09-493D-BE9B-BA708476A82C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="3345" windowWidth="15825" windowHeight="8955" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="658">
   <si>
     <t>【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-09-13 15:18:04</t>
   </si>
@@ -2081,6 +2081,14 @@
   </si>
   <si>
     <t>伤病员要去健身辽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪卡侬撸铁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我现在倒是下班了</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2665,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB084-BFB8-497C-AF2A-CA33F9FEC311}">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2716,7 +2724,7 @@
       </c>
       <c r="H2" s="15">
         <f>AVERAGEA(B2:B226)</f>
-        <v>0.60717283186652005</v>
+        <v>0.60669880438691126</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2759,7 +2767,7 @@
       </c>
       <c r="H4">
         <f>SUMIF(D:D,G4,E:E)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2784,7 +2792,7 @@
       </c>
       <c r="H5">
         <f>SUMIF(D:D,G5,E:E)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3885,7 +3893,7 @@
         <v>422</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f t="shared" ref="D66:D104" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
+        <f t="shared" ref="D66:D129" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
         <v>加班辽</v>
       </c>
       <c r="E66">
@@ -4571,11 +4579,37 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>43572</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.55160879629629633</v>
+      </c>
+      <c r="C105" t="s">
+        <v>656</v>
+      </c>
+      <c r="D105" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>正常下班</v>
+      </c>
       <c r="E105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>43573</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.61391203703703701</v>
+      </c>
+      <c r="C106" t="s">
+        <v>657</v>
+      </c>
+      <c r="D106" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>加班辽</v>
+      </c>
       <c r="E106">
         <v>1</v>
       </c>
@@ -5778,18 +5812,18 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D1:D102 D104:D1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Lyf0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8F3D42-BE09-493D-BE9B-BA708476A82C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD7115A-5296-446C-AF3F-0EBE70AA14D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="659">
   <si>
     <t>【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-09-13 15:18:04</t>
   </si>
@@ -2089,6 +2089,10 @@
   </si>
   <si>
     <t>我现在倒是下班了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎 今天好像没地方可以练，健身休息一天</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2266,7 +2270,21 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2674,7 +2692,7 @@
   <dimension ref="A1:H345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2817,7 +2835,7 @@
       </c>
       <c r="H6">
         <f>SUMIF(D:D,G6,E:E)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3893,7 +3911,7 @@
         <v>422</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f t="shared" ref="D66:D129" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
+        <f t="shared" ref="D66:D106" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
         <v>加班辽</v>
       </c>
       <c r="E66">
@@ -4615,6 +4633,16 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>43574</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" t="s">
+        <v>658</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>653</v>
+      </c>
       <c r="E107">
         <v>1</v>
       </c>
@@ -5811,19 +5839,27 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D102 D104:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="D1:D102 D104:D106 D108:D1048576">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"加班辽"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"正常下班"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Lyf0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD7115A-5296-446C-AF3F-0EBE70AA14D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD8617D-FEAD-4A9B-8161-4598A6AB5348}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="658">
   <si>
     <t>【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-09-13 15:18:04</t>
   </si>
@@ -2089,10 +2089,6 @@
   </si>
   <si>
     <t>我现在倒是下班了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>哎 今天好像没地方可以练，健身休息一天</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2692,7 +2688,7 @@
   <dimension ref="A1:H345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2742,7 +2738,7 @@
       </c>
       <c r="H2" s="15">
         <f>AVERAGEA(B2:B226)</f>
-        <v>0.60669880438691126</v>
+        <v>0.6069572426994303</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2785,7 +2781,7 @@
       </c>
       <c r="H4">
         <f>SUMIF(D:D,G4,E:E)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2835,7 +2831,7 @@
       </c>
       <c r="H6">
         <f>SUMIF(D:D,G6,E:E)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3911,7 +3907,7 @@
         <v>422</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f t="shared" ref="D66:D106" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
+        <f t="shared" ref="D66:D107" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
         <v>加班辽</v>
       </c>
       <c r="E66">
@@ -4636,12 +4632,15 @@
       <c r="A107" s="2">
         <v>43574</v>
       </c>
-      <c r="B107" s="1"/>
+      <c r="B107" s="1">
+        <v>0.6335763888888889</v>
+      </c>
       <c r="C107" t="s">
-        <v>658</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>653</v>
+        <v>2</v>
+      </c>
+      <c r="D107" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>加班辽</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5839,7 +5838,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D102 D104:D106 D108:D1048576">
+  <conditionalFormatting sqref="D1:D102 D104:D1048576">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
@@ -5852,14 +5851,6 @@
       <formula>"正常下班"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"加班辽"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"正常下班"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Lyf0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD8617D-FEAD-4A9B-8161-4598A6AB5348}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8185CA-C296-464F-B9C1-71A5496C590C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="659">
   <si>
     <t>【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-09-13 15:18:04</t>
   </si>
@@ -2089,6 +2089,10 @@
   </si>
   <si>
     <t>我现在倒是下班了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班了</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2266,21 +2270,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -2688,7 +2678,7 @@
   <dimension ref="A1:H345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2738,7 +2728,7 @@
       </c>
       <c r="H2" s="15">
         <f>AVERAGEA(B2:B226)</f>
-        <v>0.6069572426994303</v>
+        <v>0.60525992063492084</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2781,7 +2771,7 @@
       </c>
       <c r="H4">
         <f>SUMIF(D:D,G4,E:E)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2918,7 +2908,7 @@
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3907,7 +3897,7 @@
         <v>422</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f t="shared" ref="D66:D107" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
+        <f t="shared" ref="D66:D108" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
         <v>加班辽</v>
       </c>
       <c r="E66">
@@ -4647,6 +4637,19 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>43577</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.42873842592592593</v>
+      </c>
+      <c r="C108" t="s">
+        <v>658</v>
+      </c>
+      <c r="D108" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>正常下班</v>
+      </c>
       <c r="E108">
         <v>1</v>
       </c>
@@ -5839,18 +5842,18 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D1:D102 D104:D1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Lyf0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8185CA-C296-464F-B9C1-71A5496C590C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E2695-A1B0-40A7-B230-00535BCF250A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="660">
   <si>
     <t>【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-09-13 15:18:04</t>
   </si>
@@ -2093,6 +2093,10 @@
   </si>
   <si>
     <t>下班了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我吃个饭准备去健身了</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2270,7 +2274,21 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2677,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB084-BFB8-497C-AF2A-CA33F9FEC311}">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2821,7 +2839,7 @@
       </c>
       <c r="H6">
         <f>SUMIF(D:D,G6,E:E)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4655,6 +4673,15 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>43579</v>
+      </c>
+      <c r="C109" t="s">
+        <v>659</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>653</v>
+      </c>
       <c r="E109">
         <v>1</v>
       </c>
@@ -5841,7 +5868,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D102 D104:D1048576">
+  <conditionalFormatting sqref="D1:D102 D104:D108 D110:D1048576">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"正常下班"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"加班辽"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
@@ -5849,11 +5884,11 @@
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="D109">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Lyf0504\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lyf0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07168C4C-CDF7-4820-BA69-A06510624A8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="3345" windowWidth="15825" windowHeight="8955" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
+    <workbookView xWindow="2160" yWindow="3345" windowWidth="15825" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$786</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="657">
   <si>
     <t>【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-09-13 15:18:04</t>
   </si>
@@ -2083,11 +2082,15 @@
     <t>伤病员要去健身辽</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>虽然有点早 但我似乎下班辽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -2258,7 +2261,21 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2320,7 +2337,7 @@
         <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\Gokou\AppData\Local\Temp\F_4GF8[V18T9J0_@[1KF0$C.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063C807D-D0E8-4C95-85CE-9E0969E5A0D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{063C807D-D0E8-4C95-85CE-9E0969E5A0D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,11 +2679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB084-BFB8-497C-AF2A-CA33F9FEC311}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2716,7 +2733,7 @@
       </c>
       <c r="H2" s="15">
         <f>AVERAGEA(B2:B226)</f>
-        <v>0.60717283186652005</v>
+        <v>0.60513695987654326</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2759,7 +2776,7 @@
       </c>
       <c r="H4">
         <f>SUMIF(D:D,G4,E:E)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2896,7 +2913,7 @@
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3885,7 +3902,7 @@
         <v>422</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f t="shared" ref="D66:D104" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
+        <f t="shared" ref="D66:D105" si="2">IF(B66&gt;$H$2,"加班辽","正常下班")</f>
         <v>加班辽</v>
       </c>
       <c r="E66">
@@ -4571,6 +4588,19 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>43581</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.39951388888888889</v>
+      </c>
+      <c r="C105" t="s">
+        <v>656</v>
+      </c>
+      <c r="D105" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>正常下班</v>
+      </c>
       <c r="E105">
         <v>1</v>
       </c>
@@ -5778,18 +5808,18 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D1:D102 D104:D1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5799,7 +5829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01153F7-53D1-4151-B98F-EAE2FCA3C8B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B786"/>
   <sheetViews>
@@ -12894,7 +12924,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A786" xr:uid="{F6EF1562-6384-435A-9334-B4B0D3A47F33}">
+  <autoFilter ref="A1:A786">
     <filterColumn colId="0">
       <filters>
         <filter val="【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-05-28 17:43:38"/>
@@ -13035,9 +13065,9 @@
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A101" r:id="rId1" display="qq://txfile/" xr:uid="{B104833A-9398-40FA-B42B-A3BA984D9E18}"/>
-    <hyperlink ref="A346" r:id="rId2" display="qq://txfile/" xr:uid="{D8052168-9C21-46BC-B94F-1B3E27D330DD}"/>
-    <hyperlink ref="A467" r:id="rId3" display="qq://txfile/" xr:uid="{B81FCC2B-5503-4AA8-AC56-78E203C8C5DC}"/>
+    <hyperlink ref="A101" r:id="rId1" display="qq://txfile/"/>
+    <hyperlink ref="A346" r:id="rId2" display="qq://txfile/"/>
+    <hyperlink ref="A467" r:id="rId3" display="qq://txfile/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -13045,7 +13075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C223F5E7-A8D7-44C8-9371-C223BC11C1B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Lyf0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E2695-A1B0-40A7-B230-00535BCF250A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AAE415-A9AF-42AC-9EBB-BCDE15E5DE4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="662">
   <si>
     <t>【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-09-13 15:18:04</t>
   </si>
@@ -2098,6 +2098,12 @@
   <si>
     <t>我吃个饭准备去健身了</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然有点早 但我似乎下班辽</t>
+  </si>
+  <si>
+    <t>正常下班</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2267,6 +2273,18 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2695,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB084-BFB8-497C-AF2A-CA33F9FEC311}">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2746,7 +2764,7 @@
       </c>
       <c r="H2" s="15">
         <f>AVERAGEA(B2:B226)</f>
-        <v>0.60525992063492084</v>
+        <v>0.60331892033542989</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2814,7 +2832,7 @@
       </c>
       <c r="H5">
         <f>SUMIF(D:D,G5,E:E)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4687,6 +4705,18 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="18">
+        <v>43581</v>
+      </c>
+      <c r="B110" s="17">
+        <v>0.39951388888888889</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>661</v>
+      </c>
       <c r="E110">
         <v>1</v>
       </c>

--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Lyf0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AAE415-A9AF-42AC-9EBB-BCDE15E5DE4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DADDFE-9D01-401B-81F7-022A1621BA05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="663">
   <si>
     <t>【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-09-13 15:18:04</t>
   </si>
@@ -2104,6 +2104,10 @@
   </si>
   <si>
     <t>正常下班</t>
+  </si>
+  <si>
+    <t>下班辽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2714,7 +2718,7 @@
   <dimension ref="A1:H345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2764,7 +2768,7 @@
       </c>
       <c r="H2" s="15">
         <f>AVERAGEA(B2:B226)</f>
-        <v>0.60331892033542989</v>
+        <v>0.60209101332641068</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2779,7 +2783,7 @@
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2807,7 +2811,7 @@
       </c>
       <c r="H4">
         <f>SUMIF(D:D,G4,E:E)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2832,7 +2836,7 @@
       </c>
       <c r="H5">
         <f>SUMIF(D:D,G5,E:E)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3700,7 +3704,7 @@
       </c>
       <c r="D53" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4276,7 +4280,7 @@
       </c>
       <c r="D85" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4722,6 +4726,18 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="18">
+        <v>43583</v>
+      </c>
+      <c r="B111" s="17">
+        <v>0.47193287037037041</v>
+      </c>
+      <c r="C111" t="s">
+        <v>662</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>661</v>
+      </c>
       <c r="E111">
         <v>1</v>
       </c>

--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Lyf0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DADDFE-9D01-401B-81F7-022A1621BA05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D86858D-5C3E-4B9D-8618-BC820FC404AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="664">
   <si>
     <t>【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-09-13 15:18:04</t>
   </si>
@@ -2107,6 +2107,10 @@
   </si>
   <si>
     <t>下班辽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>？五一七天假啊</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2296,7 +2300,21 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2717,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB084-BFB8-497C-AF2A-CA33F9FEC311}">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2861,7 +2879,7 @@
       </c>
       <c r="H6">
         <f>SUMIF(D:D,G6,E:E)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4743,86 +4761,149 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="18">
+        <v>43584</v>
+      </c>
+      <c r="C112" t="s">
+        <v>663</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>653</v>
+      </c>
       <c r="E112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="18">
+        <v>43585</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>653</v>
+      </c>
       <c r="E113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="18">
+        <v>43586</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>653</v>
+      </c>
       <c r="E114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="18">
+        <v>43587</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>653</v>
+      </c>
       <c r="E115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="18">
+        <v>43588</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>653</v>
+      </c>
       <c r="E116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="18">
+        <v>43589</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>653</v>
+      </c>
       <c r="E117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="18">
+        <v>43590</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>653</v>
+      </c>
       <c r="E118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E128">
         <v>1</v>
       </c>
@@ -5914,7 +5995,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D102 D104:D108 D110:D1048576">
+  <conditionalFormatting sqref="D1:D102 D104:D108 D110:D111 D119:D1048576">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"正常下班"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>"加班辽"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
@@ -5922,15 +6011,15 @@
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="D109">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"加班辽"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D109">
+  <conditionalFormatting sqref="D112:D118">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"正常下班"</formula>
     </cfRule>

--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Lyf0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D86858D-5C3E-4B9D-8618-BC820FC404AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F9720-1577-48D8-B905-3A7B87200506}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
   </bookViews>
@@ -2735,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB084-BFB8-497C-AF2A-CA33F9FEC311}">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="H2" s="15">
         <f>AVERAGEA(B2:B226)</f>
-        <v>0.60209101332641068</v>
+        <v>0.55063024295663199</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="H4">
         <f>SUMIF(D:D,G4,E:E)</f>
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="H5">
         <f>SUMIF(D:D,G5,E:E)</f>
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="D48" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="D57" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="D86" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="D88" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="D97" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="D99" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -4596,7 +4596,9 @@
       <c r="A102" s="2">
         <v>43565</v>
       </c>
-      <c r="B102" s="1"/>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
       <c r="C102" t="s">
         <v>652</v>
       </c>
@@ -4611,7 +4613,9 @@
       <c r="A103" s="2">
         <v>43566</v>
       </c>
-      <c r="B103" s="1"/>
+      <c r="B103" s="17">
+        <v>0</v>
+      </c>
       <c r="C103" t="s">
         <v>654</v>
       </c>
@@ -4652,7 +4656,7 @@
       </c>
       <c r="D105" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>正常下班</v>
+        <v>加班辽</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -4716,6 +4720,9 @@
       <c r="A109" s="2">
         <v>43579</v>
       </c>
+      <c r="B109" s="17">
+        <v>0</v>
+      </c>
       <c r="C109" t="s">
         <v>659</v>
       </c>
@@ -4764,6 +4771,9 @@
       <c r="A112" s="18">
         <v>43584</v>
       </c>
+      <c r="B112" s="17">
+        <v>0</v>
+      </c>
       <c r="C112" t="s">
         <v>663</v>
       </c>
@@ -4778,6 +4788,9 @@
       <c r="A113" s="18">
         <v>43585</v>
       </c>
+      <c r="B113" s="17">
+        <v>0</v>
+      </c>
       <c r="C113" s="16" t="s">
         <v>663</v>
       </c>
@@ -4792,6 +4805,9 @@
       <c r="A114" s="18">
         <v>43586</v>
       </c>
+      <c r="B114" s="17">
+        <v>0</v>
+      </c>
       <c r="C114" s="16" t="s">
         <v>663</v>
       </c>
@@ -4806,6 +4822,9 @@
       <c r="A115" s="18">
         <v>43587</v>
       </c>
+      <c r="B115" s="17">
+        <v>0</v>
+      </c>
       <c r="C115" s="16" t="s">
         <v>663</v>
       </c>
@@ -4820,6 +4839,9 @@
       <c r="A116" s="18">
         <v>43588</v>
       </c>
+      <c r="B116" s="17">
+        <v>0</v>
+      </c>
       <c r="C116" s="16" t="s">
         <v>663</v>
       </c>
@@ -4834,6 +4856,9 @@
       <c r="A117" s="18">
         <v>43589</v>
       </c>
+      <c r="B117" s="17">
+        <v>0</v>
+      </c>
       <c r="C117" s="16" t="s">
         <v>663</v>
       </c>
@@ -4847,6 +4872,9 @@
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <v>43590</v>
+      </c>
+      <c r="B118" s="17">
+        <v>0</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>663</v>

--- a/李总下班日志.xlsx
+++ b/李总下班日志.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Lyf0504\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lyf0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F9720-1577-48D8-B905-3A7B87200506}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA133BF-6DE7-47CF-9F03-339671433E05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$786</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="664">
   <si>
     <t>【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-09-13 15:18:04</t>
   </si>
@@ -2117,7 +2116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -2390,7 +2389,7 @@
         <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\Gokou\AppData\Local\Temp\F_4GF8[V18T9J0_@[1KF0$C.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063C807D-D0E8-4C95-85CE-9E0969E5A0D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{063C807D-D0E8-4C95-85CE-9E0969E5A0D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,11 +2731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB084-BFB8-497C-AF2A-CA33F9FEC311}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2786,7 +2785,7 @@
       </c>
       <c r="H2" s="15">
         <f>AVERAGEA(B2:B226)</f>
-        <v>0.55063024295663199</v>
+        <v>0.5542688548591328</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2829,7 +2828,7 @@
       </c>
       <c r="H4">
         <f>SUMIF(D:D,G4,E:E)</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2854,7 +2853,7 @@
       </c>
       <c r="H5">
         <f>SUMIF(D:D,G5,E:E)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2879,7 +2878,7 @@
       </c>
       <c r="H6">
         <f>SUMIF(D:D,G6,E:E)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3794,7 +3793,7 @@
       </c>
       <c r="D57" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>加班辽</v>
+        <v>正常下班</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4656,7 +4655,7 @@
       </c>
       <c r="D105" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>加班辽</v>
+        <v>正常下班</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -4874,13 +4873,14 @@
         <v>43590</v>
       </c>
       <c r="B118" s="17">
-        <v>0</v>
+        <v>0.42571759259259262</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>663</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>653</v>
+        <v>662</v>
+      </c>
+      <c r="D118" s="19" t="str">
+        <f>IF(B118&gt;$H$2,"加班辽","正常下班")</f>
+        <v>正常下班</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6061,7 +6061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01153F7-53D1-4151-B98F-EAE2FCA3C8B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B786"/>
   <sheetViews>
@@ -13156,7 +13156,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A786" xr:uid="{F6EF1562-6384-435A-9334-B4B0D3A47F33}">
+  <autoFilter ref="A1:A786">
     <filterColumn colId="0">
       <filters>
         <filter val="【兢兢业业】遵纪守法典型市民&lt;sakuya@kirisamemarisa.cc&gt; 2018-05-28 17:43:38"/>
@@ -13297,9 +13297,9 @@
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A101" r:id="rId1" display="qq://txfile/" xr:uid="{B104833A-9398-40FA-B42B-A3BA984D9E18}"/>
-    <hyperlink ref="A346" r:id="rId2" display="qq://txfile/" xr:uid="{D8052168-9C21-46BC-B94F-1B3E27D330DD}"/>
-    <hyperlink ref="A467" r:id="rId3" display="qq://txfile/" xr:uid="{B81FCC2B-5503-4AA8-AC56-78E203C8C5DC}"/>
+    <hyperlink ref="A101" r:id="rId1" display="qq://txfile/"/>
+    <hyperlink ref="A346" r:id="rId2" display="qq://txfile/"/>
+    <hyperlink ref="A467" r:id="rId3" display="qq://txfile/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -13307,7 +13307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C223F5E7-A8D7-44C8-9371-C223BC11C1B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
